--- a/Documentacion/Diagrama de Gantt.xlsx
+++ b/Documentacion/Diagrama de Gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Ing. Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD4191BC-64D3-43C3-B7FC-0A8A993D681E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E09BB1-93A4-40B6-8C94-FC79E6EC7C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" tabRatio="500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'a de Gantt en blanco y burndown'!$B$1:$BV$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Backlog de lanzamientos'!$B$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Historias de usuario o tareas'!$B$1:$E$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'LO Diagrama de Gantt y Burndown'!$B$1:$BV$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'LO Diagrama de Gantt y Burndown'!$B$1:$BV$42</definedName>
     <definedName name="ScheduleStart">'[1]Office Work Schedule'!#REF!</definedName>
     <definedName name="Type">'[2]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="103">
   <si>
     <t>DIAGRAMA DE GANTT Y BURNDOWN</t>
   </si>
@@ -315,9 +315,6 @@
     <t>Desarrollo de la interfaz de usuario básica.</t>
   </si>
   <si>
-    <t>Implementación de la lógica de negocio.</t>
-  </si>
-  <si>
     <t>Integración con sistemas de monitoreo de red.</t>
   </si>
   <si>
@@ -365,12 +362,6 @@
   <si>
     <t>David y Sebastián</t>
   </si>
-  <si>
-    <t>David con jeans</t>
-  </si>
-  <si>
-    <t>David con jueans</t>
-  </si>
 </sst>
 </file>
 
@@ -382,7 +373,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,12 +574,6 @@
       <sz val="22"/>
       <color rgb="FFFFFFFF"/>
       <name val="Corbel"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0D0D0D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2171,7 +2156,37 @@
     <xf numFmtId="14" fontId="15" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2201,42 +2216,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4104,7 +4089,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$39</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$L$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4179,7 +4164,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$36:$BT$36</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$35:$BT$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -4368,7 +4353,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$39:$BT$39</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$38:$BT$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -4476,7 +4461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$37</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$L$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4499,7 +4484,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$36:$BT$36</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$35:$BT$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -4688,189 +4673,189 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$37:$BT$37</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$36:$BT$36</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>62</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.966666666666669</c:v>
+                  <c:v>57.033333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.933333333333337</c:v>
+                  <c:v>56.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.900000000000006</c:v>
+                  <c:v>55.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.866666666666674</c:v>
+                  <c:v>54.133333333333326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.833333333333343</c:v>
+                  <c:v>53.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.800000000000011</c:v>
+                  <c:v>52.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.76666666666668</c:v>
+                  <c:v>51.23333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.733333333333348</c:v>
+                  <c:v>50.266666666666652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52.700000000000017</c:v>
+                  <c:v>49.299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>51.666666666666686</c:v>
+                  <c:v>48.333333333333314</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50.633333333333354</c:v>
+                  <c:v>47.366666666666646</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.600000000000023</c:v>
+                  <c:v>46.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48.566666666666691</c:v>
+                  <c:v>45.433333333333309</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>47.53333333333336</c:v>
+                  <c:v>44.46666666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.500000000000028</c:v>
+                  <c:v>43.499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45.466666666666697</c:v>
+                  <c:v>42.533333333333303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.433333333333366</c:v>
+                  <c:v>41.566666666666634</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43.400000000000034</c:v>
+                  <c:v>40.599999999999966</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.366666666666703</c:v>
+                  <c:v>39.633333333333297</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.333333333333371</c:v>
+                  <c:v>38.666666666666629</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.30000000000004</c:v>
+                  <c:v>37.69999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39.266666666666708</c:v>
+                  <c:v>36.733333333333292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38.233333333333377</c:v>
+                  <c:v>35.766666666666623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37.200000000000045</c:v>
+                  <c:v>34.799999999999955</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>36.166666666666714</c:v>
+                  <c:v>33.833333333333286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.133333333333383</c:v>
+                  <c:v>32.866666666666617</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>34.100000000000051</c:v>
+                  <c:v>31.899999999999952</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.06666666666672</c:v>
+                  <c:v>30.933333333333287</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.033333333333388</c:v>
+                  <c:v>29.966666666666622</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>31.000000000000053</c:v>
+                  <c:v>28.999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29.966666666666718</c:v>
+                  <c:v>28.033333333333292</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.933333333333383</c:v>
+                  <c:v>27.066666666666627</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27.900000000000048</c:v>
+                  <c:v>26.099999999999962</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26.866666666666713</c:v>
+                  <c:v>25.133333333333297</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.833333333333378</c:v>
+                  <c:v>24.166666666666632</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24.800000000000043</c:v>
+                  <c:v>23.199999999999967</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.766666666666708</c:v>
+                  <c:v>22.233333333333302</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>22.733333333333373</c:v>
+                  <c:v>21.266666666666637</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.700000000000038</c:v>
+                  <c:v>20.299999999999972</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>20.666666666666703</c:v>
+                  <c:v>19.333333333333307</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19.633333333333368</c:v>
+                  <c:v>18.366666666666642</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.600000000000033</c:v>
+                  <c:v>17.399999999999977</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>17.566666666666698</c:v>
+                  <c:v>16.433333333333312</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>16.533333333333363</c:v>
+                  <c:v>15.466666666666645</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.50000000000003</c:v>
+                  <c:v>14.499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.466666666666697</c:v>
+                  <c:v>13.533333333333312</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13.433333333333364</c:v>
+                  <c:v>12.566666666666645</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>12.400000000000031</c:v>
+                  <c:v>11.599999999999978</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.366666666666697</c:v>
+                  <c:v>10.633333333333312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.333333333333364</c:v>
+                  <c:v>9.6666666666666448</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.3000000000000309</c:v>
+                  <c:v>8.699999999999978</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.2666666666666977</c:v>
+                  <c:v>7.7333333333333112</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.2333333333333645</c:v>
+                  <c:v>6.7666666666666444</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.2000000000000313</c:v>
+                  <c:v>5.7999999999999776</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.166666666666698</c:v>
+                  <c:v>4.8333333333333108</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.1333333333333648</c:v>
+                  <c:v>3.866666666666644</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.1000000000000316</c:v>
+                  <c:v>2.8999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0666666666666984</c:v>
+                  <c:v>1.9333333333333105</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.033333333333365</c:v>
+                  <c:v>0.9666666666666438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4887,7 +4872,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$38</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$L$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4910,7 +4895,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$36:$BT$36</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$35:$BT$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -5099,189 +5084,189 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$38:$BT$38</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$37:$BT$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-36</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-56</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-67</c:v>
+                  <c:v>-71</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-83</c:v>
+                  <c:v>-87</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-125</c:v>
+                  <c:v>-129</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-170</c:v>
+                  <c:v>-174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-190</c:v>
+                  <c:v>-194</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-200</c:v>
+                  <c:v>-204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-216</c:v>
+                  <c:v>-220</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-240</c:v>
+                  <c:v>-244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-288</c:v>
+                  <c:v>-292</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-308</c:v>
+                  <c:v>-312</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-312</c:v>
+                  <c:v>-316</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-317</c:v>
+                  <c:v>-321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-321</c:v>
+                  <c:v>-325</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-329</c:v>
+                  <c:v>-333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-337</c:v>
+                  <c:v>-341</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-342</c:v>
+                  <c:v>-346</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-347</c:v>
+                  <c:v>-351</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-352</c:v>
+                  <c:v>-356</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-355</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,7 +5283,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$L$40</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$L$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5321,7 +5306,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$36:$BT$36</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$35:$BT$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -5510,189 +5495,189 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LO Diagrama de Gantt y Burndown'!$M$40:$BT$40</c:f>
+              <c:f>'LO Diagrama de Gantt y Burndown'!$M$39:$BT$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-36</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-56</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-67</c:v>
+                  <c:v>-71</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-83</c:v>
+                  <c:v>-87</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-125</c:v>
+                  <c:v>-129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-170</c:v>
+                  <c:v>-174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-190</c:v>
+                  <c:v>-194</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-200</c:v>
+                  <c:v>-204</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-216</c:v>
+                  <c:v>-220</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-240</c:v>
+                  <c:v>-244</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-288</c:v>
+                  <c:v>-292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-308</c:v>
+                  <c:v>-312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-312</c:v>
+                  <c:v>-316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-317</c:v>
+                  <c:v>-321</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-321</c:v>
+                  <c:v>-325</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-329</c:v>
+                  <c:v>-333</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-337</c:v>
+                  <c:v>-341</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-342</c:v>
+                  <c:v>-346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-347</c:v>
+                  <c:v>-351</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-352</c:v>
+                  <c:v>-356</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-355</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-357</c:v>
+                  <c:v>-361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5971,13 +5956,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>72</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>2705100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6339,7 +6324,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
-      <c r="K2" s="210" t="s">
+      <c r="K2" s="222" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="42" t="s">
@@ -6420,7 +6405,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="211"/>
+      <c r="K3" s="223"/>
       <c r="L3" s="47" t="s">
         <v>3</v>
       </c>
@@ -6497,7 +6482,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="36"/>
       <c r="J4" s="37"/>
-      <c r="K4" s="211"/>
+      <c r="K4" s="223"/>
       <c r="L4" s="52" t="s">
         <v>4</v>
       </c>
@@ -6574,7 +6559,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="211"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="54" t="s">
         <v>5</v>
       </c>
@@ -6651,7 +6636,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="212"/>
+      <c r="K6" s="224"/>
       <c r="L6" s="56" t="s">
         <v>6</v>
       </c>
@@ -6719,126 +6704,126 @@
       <c r="BV6" s="39"/>
     </row>
     <row r="7" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B7" s="213" t="s">
+      <c r="B7" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="219" t="s">
+      <c r="E7" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="220"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="222" t="s">
+      <c r="F7" s="232"/>
+      <c r="G7" s="233"/>
+      <c r="H7" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="224" t="s">
+      <c r="I7" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="226" t="s">
+      <c r="J7" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="228" t="s">
+      <c r="K7" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="229" t="s">
+      <c r="L7" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="231" t="s">
+      <c r="M7" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="232"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="232"/>
-      <c r="Q7" s="225"/>
-      <c r="R7" s="233" t="s">
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="211"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="232"/>
-      <c r="T7" s="232"/>
-      <c r="U7" s="232"/>
-      <c r="V7" s="225"/>
-      <c r="W7" s="233" t="s">
+      <c r="S7" s="211"/>
+      <c r="T7" s="211"/>
+      <c r="U7" s="211"/>
+      <c r="V7" s="212"/>
+      <c r="W7" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="232"/>
-      <c r="Y7" s="232"/>
-      <c r="Z7" s="232"/>
-      <c r="AA7" s="225"/>
-      <c r="AB7" s="234" t="s">
+      <c r="X7" s="211"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="211"/>
+      <c r="AA7" s="212"/>
+      <c r="AB7" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="232"/>
-      <c r="AD7" s="232"/>
-      <c r="AE7" s="232"/>
-      <c r="AF7" s="225"/>
-      <c r="AG7" s="235" t="s">
+      <c r="AC7" s="211"/>
+      <c r="AD7" s="211"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="212"/>
+      <c r="AG7" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="AH7" s="232"/>
-      <c r="AI7" s="232"/>
-      <c r="AJ7" s="232"/>
-      <c r="AK7" s="225"/>
-      <c r="AL7" s="235" t="s">
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="212"/>
+      <c r="AL7" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="232"/>
-      <c r="AN7" s="232"/>
-      <c r="AO7" s="232"/>
-      <c r="AP7" s="225"/>
-      <c r="AQ7" s="237" t="s">
+      <c r="AM7" s="211"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="211"/>
+      <c r="AP7" s="212"/>
+      <c r="AQ7" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="AR7" s="232"/>
-      <c r="AS7" s="232"/>
-      <c r="AT7" s="232"/>
-      <c r="AU7" s="225"/>
-      <c r="AV7" s="238" t="s">
+      <c r="AR7" s="211"/>
+      <c r="AS7" s="211"/>
+      <c r="AT7" s="211"/>
+      <c r="AU7" s="212"/>
+      <c r="AV7" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="232"/>
-      <c r="AX7" s="232"/>
-      <c r="AY7" s="232"/>
-      <c r="AZ7" s="225"/>
-      <c r="BA7" s="238" t="s">
+      <c r="AW7" s="211"/>
+      <c r="AX7" s="211"/>
+      <c r="AY7" s="211"/>
+      <c r="AZ7" s="212"/>
+      <c r="BA7" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="BB7" s="232"/>
-      <c r="BC7" s="232"/>
-      <c r="BD7" s="232"/>
-      <c r="BE7" s="225"/>
-      <c r="BF7" s="239" t="s">
+      <c r="BB7" s="211"/>
+      <c r="BC7" s="211"/>
+      <c r="BD7" s="211"/>
+      <c r="BE7" s="212"/>
+      <c r="BF7" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="BG7" s="232"/>
-      <c r="BH7" s="232"/>
-      <c r="BI7" s="232"/>
-      <c r="BJ7" s="225"/>
-      <c r="BK7" s="236" t="s">
+      <c r="BG7" s="211"/>
+      <c r="BH7" s="211"/>
+      <c r="BI7" s="211"/>
+      <c r="BJ7" s="212"/>
+      <c r="BK7" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="BL7" s="232"/>
-      <c r="BM7" s="232"/>
-      <c r="BN7" s="232"/>
-      <c r="BO7" s="225"/>
-      <c r="BP7" s="236" t="s">
+      <c r="BL7" s="211"/>
+      <c r="BM7" s="211"/>
+      <c r="BN7" s="211"/>
+      <c r="BO7" s="212"/>
+      <c r="BP7" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="BQ7" s="232"/>
-      <c r="BR7" s="232"/>
-      <c r="BS7" s="232"/>
-      <c r="BT7" s="225"/>
+      <c r="BQ7" s="211"/>
+      <c r="BR7" s="211"/>
+      <c r="BS7" s="211"/>
+      <c r="BT7" s="212"/>
       <c r="BU7" s="38"/>
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="214"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="218"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="230"/>
       <c r="E8" s="58" t="s">
         <v>28</v>
       </c>
@@ -6848,11 +6833,11 @@
       <c r="G8" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="225"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="230"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="218"/>
       <c r="M8" s="61" t="s">
         <v>31</v>
       </c>
@@ -10372,19 +10357,6 @@
     <row r="42" spans="2:74" ht="216.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="BP7:BT7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BO7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -10394,6 +10366,19 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="BP7:BT7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BO7"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L33">
     <cfRule type="dataBar" priority="1">
@@ -11424,11 +11409,11 @@
     <tabColor theme="3"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BV45"/>
+  <dimension ref="A1:BV44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6"/>
@@ -11554,7 +11539,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
-      <c r="K3" s="210" t="s">
+      <c r="K3" s="222" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="42" t="s">
@@ -11633,7 +11618,7 @@
       <c r="H4" s="40"/>
       <c r="I4" s="40"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="211"/>
+      <c r="K4" s="223"/>
       <c r="L4" s="47" t="s">
         <v>3</v>
       </c>
@@ -11710,7 +11695,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="36"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="211"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="52" t="s">
         <v>4</v>
       </c>
@@ -11787,7 +11772,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37"/>
-      <c r="K6" s="211"/>
+      <c r="K6" s="223"/>
       <c r="L6" s="54" t="s">
         <v>5</v>
       </c>
@@ -11864,7 +11849,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="36"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="212"/>
+      <c r="K7" s="224"/>
       <c r="L7" s="56" t="s">
         <v>6</v>
       </c>
@@ -11932,126 +11917,126 @@
       <c r="BV7" s="39"/>
     </row>
     <row r="8" spans="1:74" ht="23.1" customHeight="1">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="215" t="s">
+      <c r="C8" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="219" t="s">
+      <c r="E8" s="231" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="220"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="222" t="s">
+      <c r="F8" s="232"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="224" t="s">
+      <c r="I8" s="236" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="226" t="s">
+      <c r="J8" s="237" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="228" t="s">
+      <c r="K8" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="229" t="s">
+      <c r="L8" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="231" t="s">
+      <c r="M8" s="219" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="232"/>
-      <c r="O8" s="232"/>
-      <c r="P8" s="232"/>
-      <c r="Q8" s="225"/>
-      <c r="R8" s="233" t="s">
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="232"/>
-      <c r="T8" s="232"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="225"/>
-      <c r="W8" s="233" t="s">
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="212"/>
+      <c r="W8" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="232"/>
-      <c r="Y8" s="232"/>
-      <c r="Z8" s="232"/>
-      <c r="AA8" s="225"/>
-      <c r="AB8" s="234" t="s">
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="212"/>
+      <c r="AB8" s="221" t="s">
         <v>19</v>
       </c>
-      <c r="AC8" s="232"/>
-      <c r="AD8" s="232"/>
-      <c r="AE8" s="232"/>
-      <c r="AF8" s="225"/>
-      <c r="AG8" s="235" t="s">
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="212"/>
+      <c r="AG8" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="AH8" s="232"/>
-      <c r="AI8" s="232"/>
-      <c r="AJ8" s="232"/>
-      <c r="AK8" s="225"/>
-      <c r="AL8" s="235" t="s">
+      <c r="AH8" s="211"/>
+      <c r="AI8" s="211"/>
+      <c r="AJ8" s="211"/>
+      <c r="AK8" s="212"/>
+      <c r="AL8" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="AM8" s="232"/>
-      <c r="AN8" s="232"/>
-      <c r="AO8" s="232"/>
-      <c r="AP8" s="225"/>
-      <c r="AQ8" s="237" t="s">
+      <c r="AM8" s="211"/>
+      <c r="AN8" s="211"/>
+      <c r="AO8" s="211"/>
+      <c r="AP8" s="212"/>
+      <c r="AQ8" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="AR8" s="232"/>
-      <c r="AS8" s="232"/>
-      <c r="AT8" s="232"/>
-      <c r="AU8" s="225"/>
-      <c r="AV8" s="238" t="s">
+      <c r="AR8" s="211"/>
+      <c r="AS8" s="211"/>
+      <c r="AT8" s="211"/>
+      <c r="AU8" s="212"/>
+      <c r="AV8" s="215" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="232"/>
-      <c r="AX8" s="232"/>
-      <c r="AY8" s="232"/>
-      <c r="AZ8" s="225"/>
-      <c r="BA8" s="238" t="s">
+      <c r="AW8" s="211"/>
+      <c r="AX8" s="211"/>
+      <c r="AY8" s="211"/>
+      <c r="AZ8" s="212"/>
+      <c r="BA8" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="BB8" s="232"/>
-      <c r="BC8" s="232"/>
-      <c r="BD8" s="232"/>
-      <c r="BE8" s="225"/>
-      <c r="BF8" s="239" t="s">
+      <c r="BB8" s="211"/>
+      <c r="BC8" s="211"/>
+      <c r="BD8" s="211"/>
+      <c r="BE8" s="212"/>
+      <c r="BF8" s="216" t="s">
         <v>25</v>
       </c>
-      <c r="BG8" s="232"/>
-      <c r="BH8" s="232"/>
-      <c r="BI8" s="232"/>
-      <c r="BJ8" s="225"/>
-      <c r="BK8" s="236" t="s">
+      <c r="BG8" s="211"/>
+      <c r="BH8" s="211"/>
+      <c r="BI8" s="211"/>
+      <c r="BJ8" s="212"/>
+      <c r="BK8" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="BL8" s="232"/>
-      <c r="BM8" s="232"/>
-      <c r="BN8" s="232"/>
-      <c r="BO8" s="225"/>
-      <c r="BP8" s="236" t="s">
+      <c r="BL8" s="211"/>
+      <c r="BM8" s="211"/>
+      <c r="BN8" s="211"/>
+      <c r="BO8" s="212"/>
+      <c r="BP8" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="BQ8" s="232"/>
-      <c r="BR8" s="232"/>
-      <c r="BS8" s="232"/>
-      <c r="BT8" s="225"/>
+      <c r="BQ8" s="211"/>
+      <c r="BR8" s="211"/>
+      <c r="BS8" s="211"/>
+      <c r="BT8" s="212"/>
       <c r="BU8" s="38"/>
       <c r="BV8" s="39"/>
     </row>
     <row r="9" spans="1:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B9" s="214"/>
-      <c r="C9" s="216"/>
-      <c r="D9" s="218"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="230"/>
       <c r="E9" s="58" t="s">
         <v>28</v>
       </c>
@@ -12061,11 +12046,11 @@
       <c r="G9" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="223"/>
-      <c r="I9" s="225"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="230"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="218"/>
       <c r="M9" s="61" t="s">
         <v>31</v>
       </c>
@@ -12348,7 +12333,7 @@
         <v>71</v>
       </c>
       <c r="D11" s="155" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="156">
         <v>2</v>
@@ -12372,19 +12357,18 @@
         <v>1</v>
       </c>
       <c r="L11" s="163">
-        <f>IFERROR(F11/E11,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="77"/>
       <c r="N11" s="78"/>
       <c r="O11" s="78"/>
       <c r="P11" s="78"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
+      <c r="Q11" s="209"/>
+      <c r="R11" s="209"/>
+      <c r="S11" s="209"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
+      <c r="V11" s="209"/>
       <c r="W11" s="78"/>
       <c r="X11" s="78"/>
       <c r="Y11" s="78"/>
@@ -12445,8 +12429,8 @@
       <c r="C12" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="165" t="s">
-        <v>98</v>
+      <c r="D12" s="155" t="s">
+        <v>97</v>
       </c>
       <c r="E12" s="156">
         <v>2</v>
@@ -12470,19 +12454,18 @@
         <v>1</v>
       </c>
       <c r="L12" s="163">
-        <f t="shared" ref="L12:L34" si="2">IFERROR(F12/E12,"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="77"/>
       <c r="N12" s="78"/>
       <c r="O12" s="78"/>
       <c r="P12" s="78"/>
       <c r="Q12" s="78"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
+      <c r="R12" s="209"/>
+      <c r="S12" s="209"/>
+      <c r="T12" s="209"/>
+      <c r="U12" s="209"/>
+      <c r="V12" s="209"/>
       <c r="W12" s="78"/>
       <c r="X12" s="78"/>
       <c r="Y12" s="78"/>
@@ -12543,8 +12526,8 @@
       <c r="C13" s="154" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="165" t="s">
-        <v>97</v>
+      <c r="D13" s="155" t="s">
+        <v>96</v>
       </c>
       <c r="E13" s="156">
         <v>2</v>
@@ -12568,7 +12551,6 @@
         <v>1</v>
       </c>
       <c r="L13" s="163">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M13" s="77"/>
@@ -12641,8 +12623,8 @@
       <c r="C14" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="165" t="s">
-        <v>97</v>
+      <c r="D14" s="155" t="s">
+        <v>96</v>
       </c>
       <c r="E14" s="156">
         <v>2</v>
@@ -12666,7 +12648,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="163">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L14:L33" si="2">IFERROR(F14/E14,"")</f>
         <v>1</v>
       </c>
       <c r="M14" s="77"/>
@@ -12740,7 +12722,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="156">
         <v>2</v>
@@ -12838,7 +12820,7 @@
         <v>76</v>
       </c>
       <c r="D16" s="155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="156">
         <v>1</v>
@@ -12936,7 +12918,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="155" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="156">
         <v>1</v>
@@ -13125,7 +13107,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="156">
         <v>3</v>
@@ -13313,7 +13295,7 @@
         <v>82</v>
       </c>
       <c r="D21" s="155" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="156">
         <v>2</v>
@@ -13407,7 +13389,7 @@
         <v>83</v>
       </c>
       <c r="D22" s="155" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="156">
         <v>3</v>
@@ -13502,16 +13484,16 @@
       </c>
       <c r="D23" s="204"/>
       <c r="E23" s="195">
-        <f>SUM(E24:E29)</f>
-        <v>28</v>
+        <f>SUM(E24:E28)</f>
+        <v>24</v>
       </c>
       <c r="F23" s="196">
-        <f>SUM(F24:F29)</f>
+        <f>SUM(F24:F28)</f>
         <v>0</v>
       </c>
       <c r="G23" s="197">
-        <f>SUM(G24:G29)</f>
-        <v>28</v>
+        <f>SUM(G24:G28)</f>
+        <v>24</v>
       </c>
       <c r="H23" s="205"/>
       <c r="I23" s="206"/>
@@ -13592,7 +13574,7 @@
         <v>85</v>
       </c>
       <c r="D24" s="155" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="156">
         <v>5</v>
@@ -13601,14 +13583,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="158">
-        <f t="shared" ref="G24:G29" si="3">E24-F24</f>
+        <f t="shared" ref="G24:G28" si="3">E24-F24</f>
         <v>5</v>
       </c>
       <c r="H24" s="159"/>
       <c r="I24" s="160"/>
       <c r="J24" s="161"/>
       <c r="K24" s="162">
-        <f t="shared" ref="K24:K29" si="4">J24-I24+1</f>
+        <f t="shared" ref="K24:K28" si="4">J24-I24+1</f>
         <v>1</v>
       </c>
       <c r="L24" s="163">
@@ -13686,7 +13668,7 @@
         <v>86</v>
       </c>
       <c r="D25" s="155" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="156">
         <v>5</v>
@@ -13774,23 +13756,23 @@
     </row>
     <row r="26" spans="2:74" ht="23.1" customHeight="1">
       <c r="B26" s="153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="165" t="s">
-        <v>101</v>
+      <c r="D26" s="155" t="s">
+        <v>100</v>
       </c>
       <c r="E26" s="156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="157">
         <v>0</v>
       </c>
       <c r="G26" s="158">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="166"/>
       <c r="I26" s="160"/>
@@ -13867,14 +13849,14 @@
       <c r="BV26" s="39"/>
     </row>
     <row r="27" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B27" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="164" t="s">
+      <c r="B27" s="153">
+        <v>3.3</v>
+      </c>
+      <c r="C27" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="165" t="s">
-        <v>101</v>
+      <c r="D27" s="155" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="156">
         <v>6</v>
@@ -13886,7 +13868,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H27" s="166"/>
+      <c r="H27" s="159"/>
       <c r="I27" s="160"/>
       <c r="J27" s="161"/>
       <c r="K27" s="162">
@@ -13961,28 +13943,32 @@
       <c r="BV27" s="39"/>
     </row>
     <row r="28" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B28" s="153">
-        <v>3.3</v>
-      </c>
-      <c r="C28" s="209" t="s">
+      <c r="B28" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="164" t="s">
         <v>89</v>
       </c>
       <c r="D28" s="155" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E28" s="156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F28" s="157">
         <v>0</v>
       </c>
       <c r="G28" s="158">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="161"/>
+        <v>2</v>
+      </c>
+      <c r="H28" s="166"/>
+      <c r="I28" s="161">
+        <v>45413</v>
+      </c>
+      <c r="J28" s="161">
+        <v>45413</v>
+      </c>
       <c r="K28" s="162">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -14055,213 +14041,209 @@
       <c r="BV28" s="39"/>
     </row>
     <row r="29" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B29" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="164" t="s">
+      <c r="B29" s="202">
+        <v>4</v>
+      </c>
+      <c r="C29" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="156">
-        <v>2</v>
-      </c>
-      <c r="F29" s="157">
-        <v>0</v>
-      </c>
-      <c r="G29" s="158">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H29" s="166"/>
-      <c r="I29" s="161">
-        <v>45413</v>
-      </c>
-      <c r="J29" s="161">
-        <v>45413</v>
-      </c>
-      <c r="K29" s="162">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L29" s="163">
+      <c r="D29" s="204"/>
+      <c r="E29" s="195">
+        <f>SUM(E30:E33)</f>
+        <v>14</v>
+      </c>
+      <c r="F29" s="196">
+        <f>SUM(F30:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="197">
+        <f>SUM(G30:G33)</f>
+        <v>14</v>
+      </c>
+      <c r="H29" s="205"/>
+      <c r="I29" s="206"/>
+      <c r="J29" s="207"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M29" s="77"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="81"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="78"/>
-      <c r="AD29" s="78"/>
-      <c r="AE29" s="78"/>
-      <c r="AF29" s="78"/>
-      <c r="AG29" s="82"/>
-      <c r="AH29" s="82"/>
-      <c r="AI29" s="82"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="82"/>
-      <c r="AL29" s="78"/>
-      <c r="AM29" s="78"/>
-      <c r="AN29" s="78"/>
-      <c r="AO29" s="78"/>
-      <c r="AP29" s="81"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="78"/>
-      <c r="AS29" s="78"/>
-      <c r="AT29" s="78"/>
-      <c r="AU29" s="78"/>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83"/>
-      <c r="AY29" s="83"/>
-      <c r="AZ29" s="83"/>
-      <c r="BA29" s="78"/>
-      <c r="BB29" s="78"/>
-      <c r="BC29" s="78"/>
-      <c r="BD29" s="78"/>
-      <c r="BE29" s="81"/>
-      <c r="BF29" s="77"/>
-      <c r="BG29" s="78"/>
-      <c r="BH29" s="78"/>
-      <c r="BI29" s="78"/>
-      <c r="BJ29" s="78"/>
-      <c r="BK29" s="84"/>
-      <c r="BL29" s="84"/>
-      <c r="BM29" s="84"/>
-      <c r="BN29" s="84"/>
-      <c r="BO29" s="84"/>
-      <c r="BP29" s="78"/>
-      <c r="BQ29" s="78"/>
-      <c r="BR29" s="78"/>
-      <c r="BS29" s="78"/>
-      <c r="BT29" s="81"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="75"/>
+      <c r="AB29" s="73"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="74"/>
+      <c r="AG29" s="74"/>
+      <c r="AH29" s="74"/>
+      <c r="AI29" s="74"/>
+      <c r="AJ29" s="74"/>
+      <c r="AK29" s="74"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="74"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="73"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="74"/>
+      <c r="AX29" s="74"/>
+      <c r="AY29" s="74"/>
+      <c r="AZ29" s="74"/>
+      <c r="BA29" s="74"/>
+      <c r="BB29" s="74"/>
+      <c r="BC29" s="74"/>
+      <c r="BD29" s="74"/>
+      <c r="BE29" s="75"/>
+      <c r="BF29" s="73"/>
+      <c r="BG29" s="74"/>
+      <c r="BH29" s="74"/>
+      <c r="BI29" s="74"/>
+      <c r="BJ29" s="74"/>
+      <c r="BK29" s="74"/>
+      <c r="BL29" s="74"/>
+      <c r="BM29" s="74"/>
+      <c r="BN29" s="74"/>
+      <c r="BO29" s="74"/>
+      <c r="BP29" s="74"/>
+      <c r="BQ29" s="74"/>
+      <c r="BR29" s="74"/>
+      <c r="BS29" s="74"/>
+      <c r="BT29" s="75"/>
       <c r="BU29" s="38"/>
       <c r="BV29" s="39"/>
     </row>
     <row r="30" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B30" s="202">
+      <c r="B30" s="153">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C30" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="156">
         <v>4</v>
       </c>
-      <c r="C30" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="204"/>
-      <c r="E30" s="195">
-        <f>SUM(E31:E34)</f>
-        <v>14</v>
-      </c>
-      <c r="F30" s="196">
-        <f>SUM(F31:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="197">
-        <f>SUM(G31:G34)</f>
-        <v>14</v>
-      </c>
-      <c r="H30" s="205"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="152">
+      <c r="F30" s="157">
+        <v>0</v>
+      </c>
+      <c r="G30" s="158">
+        <f>E30-F30</f>
+        <v>4</v>
+      </c>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="162">
+        <f>J30-I30+1</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M30" s="73"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="74"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="75"/>
-      <c r="AB30" s="73"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="74"/>
-      <c r="AG30" s="74"/>
-      <c r="AH30" s="74"/>
-      <c r="AI30" s="74"/>
-      <c r="AJ30" s="74"/>
-      <c r="AK30" s="74"/>
-      <c r="AL30" s="74"/>
-      <c r="AM30" s="74"/>
-      <c r="AN30" s="74"/>
-      <c r="AO30" s="74"/>
-      <c r="AP30" s="75"/>
-      <c r="AQ30" s="73"/>
-      <c r="AR30" s="74"/>
-      <c r="AS30" s="74"/>
-      <c r="AT30" s="74"/>
-      <c r="AU30" s="74"/>
-      <c r="AV30" s="74"/>
-      <c r="AW30" s="74"/>
-      <c r="AX30" s="74"/>
-      <c r="AY30" s="74"/>
-      <c r="AZ30" s="74"/>
-      <c r="BA30" s="74"/>
-      <c r="BB30" s="74"/>
-      <c r="BC30" s="74"/>
-      <c r="BD30" s="74"/>
-      <c r="BE30" s="75"/>
-      <c r="BF30" s="73"/>
-      <c r="BG30" s="74"/>
-      <c r="BH30" s="74"/>
-      <c r="BI30" s="74"/>
-      <c r="BJ30" s="74"/>
-      <c r="BK30" s="74"/>
-      <c r="BL30" s="74"/>
-      <c r="BM30" s="74"/>
-      <c r="BN30" s="74"/>
-      <c r="BO30" s="74"/>
-      <c r="BP30" s="74"/>
-      <c r="BQ30" s="74"/>
-      <c r="BR30" s="74"/>
-      <c r="BS30" s="74"/>
-      <c r="BT30" s="75"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="81"/>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="82"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="81"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="83"/>
+      <c r="AW30" s="83"/>
+      <c r="AX30" s="83"/>
+      <c r="AY30" s="83"/>
+      <c r="AZ30" s="83"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="81"/>
+      <c r="BF30" s="77"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="84"/>
+      <c r="BL30" s="84"/>
+      <c r="BM30" s="84"/>
+      <c r="BN30" s="84"/>
+      <c r="BO30" s="84"/>
+      <c r="BP30" s="78"/>
+      <c r="BQ30" s="78"/>
+      <c r="BR30" s="78"/>
+      <c r="BS30" s="78"/>
+      <c r="BT30" s="81"/>
       <c r="BU30" s="38"/>
       <c r="BV30" s="39"/>
     </row>
     <row r="31" spans="2:74" ht="23.1" customHeight="1">
       <c r="B31" s="153">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C31" s="154" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="155" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E31" s="156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="157">
         <v>0</v>
       </c>
       <c r="G31" s="158">
         <f>E31-F31</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="159"/>
       <c r="I31" s="160"/>
@@ -14339,27 +14321,31 @@
     </row>
     <row r="32" spans="2:74" ht="23.1" customHeight="1">
       <c r="B32" s="153">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="C32" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="155" t="s">
-        <v>97</v>
+      <c r="D32" s="171" t="s">
+        <v>99</v>
       </c>
       <c r="E32" s="156">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F32" s="157">
         <v>0</v>
       </c>
       <c r="G32" s="158">
         <f>E32-F32</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="161"/>
+      <c r="I32" s="160">
+        <v>45414</v>
+      </c>
+      <c r="J32" s="160">
+        <v>45414</v>
+      </c>
       <c r="K32" s="162">
         <f>J32-I32+1</f>
         <v>1</v>
@@ -14431,498 +14417,661 @@
       <c r="BU32" s="38"/>
       <c r="BV32" s="39"/>
     </row>
-    <row r="33" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B33" s="153">
-        <v>4.3</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="33" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B33" s="172" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="171" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="156">
-        <v>6</v>
-      </c>
-      <c r="F33" s="157">
-        <v>0</v>
-      </c>
-      <c r="G33" s="158">
+      <c r="D33" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="175">
+        <v>2</v>
+      </c>
+      <c r="F33" s="176">
+        <v>0</v>
+      </c>
+      <c r="G33" s="177">
         <f>E33-F33</f>
-        <v>6</v>
-      </c>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160">
-        <v>45414</v>
-      </c>
-      <c r="J33" s="160">
-        <v>45414</v>
-      </c>
-      <c r="K33" s="162">
+        <v>2</v>
+      </c>
+      <c r="H33" s="178"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="181">
         <f>J33-I33+1</f>
         <v>1</v>
       </c>
-      <c r="L33" s="163">
+      <c r="L33" s="182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M33" s="77"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="81"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="82"/>
-      <c r="AJ33" s="82"/>
-      <c r="AK33" s="82"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="81"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="78"/>
-      <c r="AU33" s="78"/>
-      <c r="AV33" s="83"/>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="83"/>
-      <c r="AY33" s="83"/>
-      <c r="AZ33" s="83"/>
-      <c r="BA33" s="78"/>
-      <c r="BB33" s="78"/>
-      <c r="BC33" s="78"/>
-      <c r="BD33" s="78"/>
-      <c r="BE33" s="81"/>
-      <c r="BF33" s="77"/>
-      <c r="BG33" s="78"/>
-      <c r="BH33" s="78"/>
-      <c r="BI33" s="78"/>
-      <c r="BJ33" s="78"/>
-      <c r="BK33" s="84"/>
-      <c r="BL33" s="84"/>
-      <c r="BM33" s="84"/>
-      <c r="BN33" s="84"/>
-      <c r="BO33" s="84"/>
-      <c r="BP33" s="78"/>
-      <c r="BQ33" s="78"/>
-      <c r="BR33" s="78"/>
-      <c r="BS33" s="78"/>
-      <c r="BT33" s="81"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="89"/>
+      <c r="AF33" s="89"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="89"/>
+      <c r="AN33" s="89"/>
+      <c r="AO33" s="89"/>
+      <c r="AP33" s="91"/>
+      <c r="AQ33" s="88"/>
+      <c r="AR33" s="89"/>
+      <c r="AS33" s="89"/>
+      <c r="AT33" s="89"/>
+      <c r="AU33" s="89"/>
+      <c r="AV33" s="93"/>
+      <c r="AW33" s="93"/>
+      <c r="AX33" s="93"/>
+      <c r="AY33" s="93"/>
+      <c r="AZ33" s="93"/>
+      <c r="BA33" s="89"/>
+      <c r="BB33" s="89"/>
+      <c r="BC33" s="89"/>
+      <c r="BD33" s="89"/>
+      <c r="BE33" s="91"/>
+      <c r="BF33" s="88"/>
+      <c r="BG33" s="89"/>
+      <c r="BH33" s="89"/>
+      <c r="BI33" s="89"/>
+      <c r="BJ33" s="89"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+      <c r="BN33" s="94"/>
+      <c r="BO33" s="94"/>
+      <c r="BP33" s="89"/>
+      <c r="BQ33" s="89"/>
+      <c r="BR33" s="89"/>
+      <c r="BS33" s="89"/>
+      <c r="BT33" s="91"/>
       <c r="BU33" s="38"/>
       <c r="BV33" s="39"/>
     </row>
-    <row r="34" spans="2:74" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B34" s="172" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="174" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="175">
-        <v>2</v>
-      </c>
-      <c r="F34" s="176">
-        <v>0</v>
-      </c>
-      <c r="G34" s="177">
-        <f>E34-F34</f>
-        <v>2</v>
-      </c>
-      <c r="H34" s="178"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="181">
-        <f>J34-I34+1</f>
-        <v>1</v>
-      </c>
-      <c r="L34" s="182">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="88"/>
-      <c r="N34" s="89"/>
-      <c r="O34" s="89"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="89"/>
-      <c r="Z34" s="89"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="89"/>
-      <c r="AD34" s="89"/>
-      <c r="AE34" s="89"/>
-      <c r="AF34" s="89"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="89"/>
-      <c r="AN34" s="89"/>
-      <c r="AO34" s="89"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="88"/>
-      <c r="AR34" s="89"/>
-      <c r="AS34" s="89"/>
-      <c r="AT34" s="89"/>
-      <c r="AU34" s="89"/>
-      <c r="AV34" s="93"/>
-      <c r="AW34" s="93"/>
-      <c r="AX34" s="93"/>
-      <c r="AY34" s="93"/>
-      <c r="AZ34" s="93"/>
-      <c r="BA34" s="89"/>
-      <c r="BB34" s="89"/>
-      <c r="BC34" s="89"/>
-      <c r="BD34" s="89"/>
-      <c r="BE34" s="91"/>
-      <c r="BF34" s="88"/>
-      <c r="BG34" s="89"/>
-      <c r="BH34" s="89"/>
-      <c r="BI34" s="89"/>
-      <c r="BJ34" s="89"/>
-      <c r="BK34" s="94"/>
-      <c r="BL34" s="94"/>
-      <c r="BM34" s="94"/>
-      <c r="BN34" s="94"/>
-      <c r="BO34" s="94"/>
-      <c r="BP34" s="89"/>
-      <c r="BQ34" s="89"/>
-      <c r="BR34" s="89"/>
-      <c r="BS34" s="89"/>
-      <c r="BT34" s="91"/>
+    <row r="34" spans="2:74" ht="23.1" customHeight="1">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="38"/>
+      <c r="AJ34" s="38"/>
+      <c r="AK34" s="38"/>
+      <c r="AL34" s="38"/>
+      <c r="AM34" s="38"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BE34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38"/>
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
       <c r="BU34" s="38"/>
       <c r="BV34" s="39"/>
     </row>
     <row r="35" spans="2:74" ht="23.1" customHeight="1">
       <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="95" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="95" t="s">
-        <v>42</v>
+      <c r="C35" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="97">
+        <f>SUM(E11:E17,E19:E22,E24:E28,E30:E33)</f>
+        <v>58</v>
+      </c>
+      <c r="F35" s="97">
+        <f>SUM(F11:F17,F19:F22,F24:F28,F30:F33)</f>
+        <v>12</v>
+      </c>
+      <c r="G35" s="97">
+        <f>SUM(G11:G17,G19:G22,G24:G28,G30:G33)</f>
+        <v>46</v>
+      </c>
+      <c r="H35" s="184">
+        <v>60</v>
+      </c>
+      <c r="I35" s="183">
+        <f>E35/H35</f>
+        <v>0.96666666666666667</v>
       </c>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="38"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="38"/>
-      <c r="AF35" s="38"/>
-      <c r="AG35" s="38"/>
-      <c r="AH35" s="38"/>
-      <c r="AI35" s="38"/>
-      <c r="AJ35" s="38"/>
-      <c r="AK35" s="38"/>
-      <c r="AL35" s="38"/>
-      <c r="AM35" s="38"/>
-      <c r="AN35" s="38"/>
-      <c r="AO35" s="38"/>
-      <c r="AP35" s="38"/>
-      <c r="AQ35" s="38"/>
-      <c r="AR35" s="38"/>
-      <c r="AS35" s="38"/>
-      <c r="AT35" s="38"/>
-      <c r="AU35" s="38"/>
-      <c r="AV35" s="38"/>
-      <c r="AW35" s="38"/>
-      <c r="AX35" s="38"/>
-      <c r="AY35" s="38"/>
-      <c r="AZ35" s="38"/>
-      <c r="BA35" s="38"/>
-      <c r="BB35" s="38"/>
-      <c r="BC35" s="38"/>
-      <c r="BD35" s="38"/>
-      <c r="BE35" s="38"/>
-      <c r="BF35" s="38"/>
-      <c r="BG35" s="38"/>
-      <c r="BH35" s="38"/>
-      <c r="BI35" s="38"/>
-      <c r="BJ35" s="38"/>
-      <c r="BK35" s="38"/>
-      <c r="BL35" s="38"/>
-      <c r="BM35" s="38"/>
-      <c r="BN35" s="38"/>
-      <c r="BO35" s="38"/>
-      <c r="BP35" s="38"/>
-      <c r="BQ35" s="38"/>
-      <c r="BR35" s="38"/>
-      <c r="BS35" s="38"/>
-      <c r="BT35" s="38"/>
+      <c r="L35" s="185" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="98">
+        <v>1</v>
+      </c>
+      <c r="N35" s="98">
+        <v>2</v>
+      </c>
+      <c r="O35" s="98">
+        <v>3</v>
+      </c>
+      <c r="P35" s="98">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="98">
+        <v>5</v>
+      </c>
+      <c r="R35" s="98">
+        <v>6</v>
+      </c>
+      <c r="S35" s="98">
+        <v>7</v>
+      </c>
+      <c r="T35" s="98">
+        <v>8</v>
+      </c>
+      <c r="U35" s="98">
+        <v>9</v>
+      </c>
+      <c r="V35" s="98">
+        <v>10</v>
+      </c>
+      <c r="W35" s="98">
+        <v>11</v>
+      </c>
+      <c r="X35" s="98">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="98">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="98">
+        <v>14</v>
+      </c>
+      <c r="AA35" s="98">
+        <v>15</v>
+      </c>
+      <c r="AB35" s="98">
+        <v>16</v>
+      </c>
+      <c r="AC35" s="98">
+        <v>17</v>
+      </c>
+      <c r="AD35" s="98">
+        <v>18</v>
+      </c>
+      <c r="AE35" s="98">
+        <v>19</v>
+      </c>
+      <c r="AF35" s="98">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="98">
+        <v>21</v>
+      </c>
+      <c r="AH35" s="98">
+        <v>22</v>
+      </c>
+      <c r="AI35" s="98">
+        <v>23</v>
+      </c>
+      <c r="AJ35" s="98">
+        <v>24</v>
+      </c>
+      <c r="AK35" s="98">
+        <v>25</v>
+      </c>
+      <c r="AL35" s="98">
+        <v>26</v>
+      </c>
+      <c r="AM35" s="98">
+        <v>27</v>
+      </c>
+      <c r="AN35" s="98">
+        <v>28</v>
+      </c>
+      <c r="AO35" s="98">
+        <v>29</v>
+      </c>
+      <c r="AP35" s="98">
+        <v>30</v>
+      </c>
+      <c r="AQ35" s="98">
+        <v>31</v>
+      </c>
+      <c r="AR35" s="98">
+        <v>32</v>
+      </c>
+      <c r="AS35" s="98">
+        <v>33</v>
+      </c>
+      <c r="AT35" s="98">
+        <v>34</v>
+      </c>
+      <c r="AU35" s="98">
+        <v>35</v>
+      </c>
+      <c r="AV35" s="98">
+        <v>36</v>
+      </c>
+      <c r="AW35" s="98">
+        <v>37</v>
+      </c>
+      <c r="AX35" s="98">
+        <v>38</v>
+      </c>
+      <c r="AY35" s="98">
+        <v>39</v>
+      </c>
+      <c r="AZ35" s="98">
+        <v>40</v>
+      </c>
+      <c r="BA35" s="98">
+        <v>41</v>
+      </c>
+      <c r="BB35" s="98">
+        <v>42</v>
+      </c>
+      <c r="BC35" s="98">
+        <v>43</v>
+      </c>
+      <c r="BD35" s="98">
+        <v>44</v>
+      </c>
+      <c r="BE35" s="98">
+        <v>45</v>
+      </c>
+      <c r="BF35" s="98">
+        <v>46</v>
+      </c>
+      <c r="BG35" s="98">
+        <v>47</v>
+      </c>
+      <c r="BH35" s="98">
+        <v>48</v>
+      </c>
+      <c r="BI35" s="98">
+        <v>49</v>
+      </c>
+      <c r="BJ35" s="98">
+        <v>50</v>
+      </c>
+      <c r="BK35" s="98">
+        <v>51</v>
+      </c>
+      <c r="BL35" s="98">
+        <v>52</v>
+      </c>
+      <c r="BM35" s="98">
+        <v>53</v>
+      </c>
+      <c r="BN35" s="98">
+        <v>54</v>
+      </c>
+      <c r="BO35" s="98">
+        <v>55</v>
+      </c>
+      <c r="BP35" s="98">
+        <v>56</v>
+      </c>
+      <c r="BQ35" s="98">
+        <v>57</v>
+      </c>
+      <c r="BR35" s="98">
+        <v>58</v>
+      </c>
+      <c r="BS35" s="98">
+        <v>59</v>
+      </c>
+      <c r="BT35" s="98">
+        <v>60</v>
+      </c>
       <c r="BU35" s="38"/>
-      <c r="BV35" s="39"/>
+      <c r="BV35" s="140" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36" spans="2:74" ht="23.1" customHeight="1">
       <c r="B36" s="38"/>
-      <c r="C36" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="97">
-        <f>SUM(E11:E17,E19:E22,E24:E29,E31:E34)</f>
-        <v>62</v>
-      </c>
-      <c r="F36" s="97">
-        <f>SUM(F11:F17,F19:F22,F24:F29,F31:F34)</f>
-        <v>12</v>
-      </c>
-      <c r="G36" s="97">
-        <f>SUM(G11:G17,G19:G22,G24:G29,G31:G34)</f>
-        <v>50</v>
-      </c>
-      <c r="H36" s="184">
-        <v>60</v>
-      </c>
-      <c r="I36" s="183">
-        <f>E36/H36</f>
-        <v>1.0333333333333334</v>
-      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
       <c r="L36" s="185" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="98">
-        <v>1</v>
-      </c>
-      <c r="N36" s="98">
-        <v>2</v>
-      </c>
-      <c r="O36" s="98">
-        <v>3</v>
-      </c>
-      <c r="P36" s="98">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="98">
-        <v>5</v>
-      </c>
-      <c r="R36" s="98">
-        <v>6</v>
-      </c>
-      <c r="S36" s="98">
-        <v>7</v>
-      </c>
-      <c r="T36" s="98">
-        <v>8</v>
-      </c>
-      <c r="U36" s="98">
-        <v>9</v>
-      </c>
-      <c r="V36" s="98">
-        <v>10</v>
-      </c>
-      <c r="W36" s="98">
-        <v>11</v>
-      </c>
-      <c r="X36" s="98">
-        <v>12</v>
-      </c>
-      <c r="Y36" s="98">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="98">
-        <v>14</v>
-      </c>
-      <c r="AA36" s="98">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="98">
-        <v>16</v>
-      </c>
-      <c r="AC36" s="98">
-        <v>17</v>
-      </c>
-      <c r="AD36" s="98">
-        <v>18</v>
-      </c>
-      <c r="AE36" s="98">
-        <v>19</v>
-      </c>
-      <c r="AF36" s="98">
-        <v>20</v>
-      </c>
-      <c r="AG36" s="98">
-        <v>21</v>
-      </c>
-      <c r="AH36" s="98">
-        <v>22</v>
-      </c>
-      <c r="AI36" s="98">
-        <v>23</v>
-      </c>
-      <c r="AJ36" s="98">
-        <v>24</v>
-      </c>
-      <c r="AK36" s="98">
-        <v>25</v>
-      </c>
-      <c r="AL36" s="98">
-        <v>26</v>
-      </c>
-      <c r="AM36" s="98">
-        <v>27</v>
-      </c>
-      <c r="AN36" s="98">
-        <v>28</v>
-      </c>
-      <c r="AO36" s="98">
-        <v>29</v>
-      </c>
-      <c r="AP36" s="98">
-        <v>30</v>
-      </c>
-      <c r="AQ36" s="98">
-        <v>31</v>
-      </c>
-      <c r="AR36" s="98">
-        <v>32</v>
-      </c>
-      <c r="AS36" s="98">
-        <v>33</v>
-      </c>
-      <c r="AT36" s="98">
-        <v>34</v>
-      </c>
-      <c r="AU36" s="98">
-        <v>35</v>
-      </c>
-      <c r="AV36" s="98">
-        <v>36</v>
-      </c>
-      <c r="AW36" s="98">
-        <v>37</v>
-      </c>
-      <c r="AX36" s="98">
-        <v>38</v>
-      </c>
-      <c r="AY36" s="98">
-        <v>39</v>
-      </c>
-      <c r="AZ36" s="98">
-        <v>40</v>
-      </c>
-      <c r="BA36" s="98">
-        <v>41</v>
-      </c>
-      <c r="BB36" s="98">
-        <v>42</v>
-      </c>
-      <c r="BC36" s="98">
-        <v>43</v>
-      </c>
-      <c r="BD36" s="98">
-        <v>44</v>
-      </c>
-      <c r="BE36" s="98">
-        <v>45</v>
-      </c>
-      <c r="BF36" s="98">
-        <v>46</v>
-      </c>
-      <c r="BG36" s="98">
-        <v>47</v>
-      </c>
-      <c r="BH36" s="98">
         <v>48</v>
       </c>
-      <c r="BI36" s="98">
+      <c r="M36" s="100">
+        <f>E35</f>
+        <v>58</v>
+      </c>
+      <c r="N36" s="101">
+        <f>M36-I35</f>
+        <v>57.033333333333331</v>
+      </c>
+      <c r="O36" s="101">
+        <f>N36-I35</f>
+        <v>56.066666666666663</v>
+      </c>
+      <c r="P36" s="101">
+        <f>O36-I35</f>
+        <v>55.099999999999994</v>
+      </c>
+      <c r="Q36" s="101">
+        <f>P36-I35</f>
+        <v>54.133333333333326</v>
+      </c>
+      <c r="R36" s="101">
+        <f>Q36-I35</f>
+        <v>53.166666666666657</v>
+      </c>
+      <c r="S36" s="101">
+        <f>R36-I35</f>
+        <v>52.199999999999989</v>
+      </c>
+      <c r="T36" s="101">
+        <f>S36-I35</f>
+        <v>51.23333333333332</v>
+      </c>
+      <c r="U36" s="101">
+        <f>T36-I35</f>
+        <v>50.266666666666652</v>
+      </c>
+      <c r="V36" s="101">
+        <f>U36-I35</f>
+        <v>49.299999999999983</v>
+      </c>
+      <c r="W36" s="101">
+        <f>V36-I35</f>
+        <v>48.333333333333314</v>
+      </c>
+      <c r="X36" s="101">
+        <f>W36-I35</f>
+        <v>47.366666666666646</v>
+      </c>
+      <c r="Y36" s="101">
+        <f>X36-I35</f>
+        <v>46.399999999999977</v>
+      </c>
+      <c r="Z36" s="101">
+        <f>Y36-I35</f>
+        <v>45.433333333333309</v>
+      </c>
+      <c r="AA36" s="101">
+        <f>Z36-I35</f>
+        <v>44.46666666666664</v>
+      </c>
+      <c r="AB36" s="101">
+        <f>AA36-I35</f>
+        <v>43.499999999999972</v>
+      </c>
+      <c r="AC36" s="101">
+        <f>AB36-I35</f>
+        <v>42.533333333333303</v>
+      </c>
+      <c r="AD36" s="101">
+        <f>AC36-I35</f>
+        <v>41.566666666666634</v>
+      </c>
+      <c r="AE36" s="101">
+        <f>AD36-I35</f>
+        <v>40.599999999999966</v>
+      </c>
+      <c r="AF36" s="101">
+        <f>AE36-I35</f>
+        <v>39.633333333333297</v>
+      </c>
+      <c r="AG36" s="101">
+        <f>AF36-I35</f>
+        <v>38.666666666666629</v>
+      </c>
+      <c r="AH36" s="101">
+        <f>AG36-I35</f>
+        <v>37.69999999999996</v>
+      </c>
+      <c r="AI36" s="101">
+        <f>AH36-I35</f>
+        <v>36.733333333333292</v>
+      </c>
+      <c r="AJ36" s="101">
+        <f>AI36-I35</f>
+        <v>35.766666666666623</v>
+      </c>
+      <c r="AK36" s="101">
+        <f>AJ36-I35</f>
+        <v>34.799999999999955</v>
+      </c>
+      <c r="AL36" s="101">
+        <f>AK36-I35</f>
+        <v>33.833333333333286</v>
+      </c>
+      <c r="AM36" s="101">
+        <f>AL36-I35</f>
+        <v>32.866666666666617</v>
+      </c>
+      <c r="AN36" s="101">
+        <f>AM36-I35</f>
+        <v>31.899999999999952</v>
+      </c>
+      <c r="AO36" s="101">
+        <f>AN36-I35</f>
+        <v>30.933333333333287</v>
+      </c>
+      <c r="AP36" s="101">
+        <f>AO36-I35</f>
+        <v>29.966666666666622</v>
+      </c>
+      <c r="AQ36" s="101">
+        <f>AP36-I35</f>
+        <v>28.999999999999957</v>
+      </c>
+      <c r="AR36" s="101">
+        <f>AQ36-I35</f>
+        <v>28.033333333333292</v>
+      </c>
+      <c r="AS36" s="101">
+        <f>AR36-I35</f>
+        <v>27.066666666666627</v>
+      </c>
+      <c r="AT36" s="101">
+        <f>AS36-I35</f>
+        <v>26.099999999999962</v>
+      </c>
+      <c r="AU36" s="101">
+        <f>AT36-I35</f>
+        <v>25.133333333333297</v>
+      </c>
+      <c r="AV36" s="101">
+        <f>AU36-I35</f>
+        <v>24.166666666666632</v>
+      </c>
+      <c r="AW36" s="101">
+        <f>AV36-I35</f>
+        <v>23.199999999999967</v>
+      </c>
+      <c r="AX36" s="101">
+        <f>AW36-I35</f>
+        <v>22.233333333333302</v>
+      </c>
+      <c r="AY36" s="101">
+        <f>AX36-I35</f>
+        <v>21.266666666666637</v>
+      </c>
+      <c r="AZ36" s="101">
+        <f>AY36-I35</f>
+        <v>20.299999999999972</v>
+      </c>
+      <c r="BA36" s="101">
+        <f>AZ36-I35</f>
+        <v>19.333333333333307</v>
+      </c>
+      <c r="BB36" s="101">
+        <f>BA36-I35</f>
+        <v>18.366666666666642</v>
+      </c>
+      <c r="BC36" s="101">
+        <f>BB36-I35</f>
+        <v>17.399999999999977</v>
+      </c>
+      <c r="BD36" s="101">
+        <f>BC36-I35</f>
+        <v>16.433333333333312</v>
+      </c>
+      <c r="BE36" s="101">
+        <f>BD36-I35</f>
+        <v>15.466666666666645</v>
+      </c>
+      <c r="BF36" s="101">
+        <f>BE36-I35</f>
+        <v>14.499999999999979</v>
+      </c>
+      <c r="BG36" s="101">
+        <f>BF36-I35</f>
+        <v>13.533333333333312</v>
+      </c>
+      <c r="BH36" s="101">
+        <f>BG36-I35</f>
+        <v>12.566666666666645</v>
+      </c>
+      <c r="BI36" s="101">
+        <f>BH36-I35</f>
+        <v>11.599999999999978</v>
+      </c>
+      <c r="BJ36" s="101">
+        <f>BI36-I35</f>
+        <v>10.633333333333312</v>
+      </c>
+      <c r="BK36" s="101">
+        <f>BJ36-I35</f>
+        <v>9.6666666666666448</v>
+      </c>
+      <c r="BL36" s="101">
+        <f>BK36-I35</f>
+        <v>8.699999999999978</v>
+      </c>
+      <c r="BM36" s="101">
+        <f>BL36-I35</f>
+        <v>7.7333333333333112</v>
+      </c>
+      <c r="BN36" s="101">
+        <f>BM36-I35</f>
+        <v>6.7666666666666444</v>
+      </c>
+      <c r="BO36" s="101">
+        <f>BN36-I35</f>
+        <v>5.7999999999999776</v>
+      </c>
+      <c r="BP36" s="101">
+        <f>BO36-I35</f>
+        <v>4.8333333333333108</v>
+      </c>
+      <c r="BQ36" s="101">
+        <f>BP36-I35</f>
+        <v>3.866666666666644</v>
+      </c>
+      <c r="BR36" s="101">
+        <f>BQ36-I35</f>
+        <v>2.8999999999999773</v>
+      </c>
+      <c r="BS36" s="101">
+        <f>BR36-I35</f>
+        <v>1.9333333333333105</v>
+      </c>
+      <c r="BT36" s="101">
+        <f>BS36-I35</f>
+        <v>0.9666666666666438</v>
+      </c>
+      <c r="BU36" s="38"/>
+      <c r="BV36" s="141" t="s">
         <v>49</v>
-      </c>
-      <c r="BJ36" s="98">
-        <v>50</v>
-      </c>
-      <c r="BK36" s="98">
-        <v>51</v>
-      </c>
-      <c r="BL36" s="98">
-        <v>52</v>
-      </c>
-      <c r="BM36" s="98">
-        <v>53</v>
-      </c>
-      <c r="BN36" s="98">
-        <v>54</v>
-      </c>
-      <c r="BO36" s="98">
-        <v>55</v>
-      </c>
-      <c r="BP36" s="98">
-        <v>56</v>
-      </c>
-      <c r="BQ36" s="98">
-        <v>57</v>
-      </c>
-      <c r="BR36" s="98">
-        <v>58</v>
-      </c>
-      <c r="BS36" s="98">
-        <v>59</v>
-      </c>
-      <c r="BT36" s="98">
-        <v>60</v>
-      </c>
-      <c r="BU36" s="38"/>
-      <c r="BV36" s="140" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:74" ht="23.1" customHeight="1">
@@ -14932,258 +15081,257 @@
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="99" t="s">
-        <v>47</v>
-      </c>
+      <c r="H37" s="38"/>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
       <c r="L37" s="185" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M37" s="100">
-        <f>E36</f>
-        <v>62</v>
-      </c>
-      <c r="N37" s="101">
-        <f>M37-I36</f>
-        <v>60.966666666666669</v>
-      </c>
-      <c r="O37" s="101">
-        <f>N37-I36</f>
-        <v>59.933333333333337</v>
-      </c>
-      <c r="P37" s="101">
-        <f>O37-I36</f>
-        <v>58.900000000000006</v>
-      </c>
-      <c r="Q37" s="101">
-        <f>P37-I36</f>
-        <v>57.866666666666674</v>
-      </c>
-      <c r="R37" s="101">
-        <f>Q37-I36</f>
-        <v>56.833333333333343</v>
-      </c>
-      <c r="S37" s="101">
-        <f>R37-I36</f>
-        <v>55.800000000000011</v>
-      </c>
-      <c r="T37" s="101">
-        <f>S37-I36</f>
-        <v>54.76666666666668</v>
-      </c>
-      <c r="U37" s="101">
-        <f>T37-I36</f>
-        <v>53.733333333333348</v>
-      </c>
-      <c r="V37" s="101">
-        <f>U37-I36</f>
-        <v>52.700000000000017</v>
-      </c>
-      <c r="W37" s="101">
-        <f>V37-I36</f>
-        <v>51.666666666666686</v>
-      </c>
-      <c r="X37" s="101">
-        <f>W37-I36</f>
-        <v>50.633333333333354</v>
-      </c>
-      <c r="Y37" s="101">
-        <f>X37-I36</f>
-        <v>49.600000000000023</v>
-      </c>
-      <c r="Z37" s="101">
-        <f>Y37-I36</f>
-        <v>48.566666666666691</v>
-      </c>
-      <c r="AA37" s="101">
-        <f>Z37-I36</f>
-        <v>47.53333333333336</v>
-      </c>
-      <c r="AB37" s="101">
-        <f>AA37-I36</f>
-        <v>46.500000000000028</v>
-      </c>
-      <c r="AC37" s="101">
-        <f>AB37-I36</f>
-        <v>45.466666666666697</v>
-      </c>
-      <c r="AD37" s="101">
-        <f>AC37-I36</f>
-        <v>44.433333333333366</v>
-      </c>
-      <c r="AE37" s="101">
-        <f>AD37-I36</f>
-        <v>43.400000000000034</v>
-      </c>
-      <c r="AF37" s="101">
-        <f>AE37-I36</f>
-        <v>42.366666666666703</v>
-      </c>
-      <c r="AG37" s="101">
-        <f>AF37-I36</f>
-        <v>41.333333333333371</v>
-      </c>
-      <c r="AH37" s="101">
-        <f>AG37-I36</f>
-        <v>40.30000000000004</v>
-      </c>
-      <c r="AI37" s="101">
-        <f>AH37-I36</f>
-        <v>39.266666666666708</v>
-      </c>
-      <c r="AJ37" s="101">
-        <f>AI37-I36</f>
-        <v>38.233333333333377</v>
-      </c>
-      <c r="AK37" s="101">
-        <f>AJ37-I36</f>
-        <v>37.200000000000045</v>
-      </c>
-      <c r="AL37" s="101">
-        <f>AK37-I36</f>
-        <v>36.166666666666714</v>
-      </c>
-      <c r="AM37" s="101">
-        <f>AL37-I36</f>
-        <v>35.133333333333383</v>
-      </c>
-      <c r="AN37" s="101">
-        <f>AM37-I36</f>
-        <v>34.100000000000051</v>
-      </c>
-      <c r="AO37" s="101">
-        <f>AN37-I36</f>
-        <v>33.06666666666672</v>
-      </c>
-      <c r="AP37" s="101">
-        <f>AO37-I36</f>
-        <v>32.033333333333388</v>
-      </c>
-      <c r="AQ37" s="101">
-        <f>AP37-I36</f>
-        <v>31.000000000000053</v>
-      </c>
-      <c r="AR37" s="101">
-        <f>AQ37-I36</f>
-        <v>29.966666666666718</v>
-      </c>
-      <c r="AS37" s="101">
-        <f>AR37-I36</f>
-        <v>28.933333333333383</v>
-      </c>
-      <c r="AT37" s="101">
-        <f>AS37-I36</f>
-        <v>27.900000000000048</v>
-      </c>
-      <c r="AU37" s="101">
-        <f>AT37-I36</f>
-        <v>26.866666666666713</v>
-      </c>
-      <c r="AV37" s="101">
-        <f>AU37-I36</f>
-        <v>25.833333333333378</v>
-      </c>
-      <c r="AW37" s="101">
-        <f>AV37-I36</f>
-        <v>24.800000000000043</v>
-      </c>
-      <c r="AX37" s="101">
-        <f>AW37-I36</f>
-        <v>23.766666666666708</v>
-      </c>
-      <c r="AY37" s="101">
-        <f>AX37-I36</f>
-        <v>22.733333333333373</v>
-      </c>
-      <c r="AZ37" s="101">
-        <f>AY37-I36</f>
-        <v>21.700000000000038</v>
-      </c>
-      <c r="BA37" s="101">
-        <f>AZ37-I36</f>
-        <v>20.666666666666703</v>
-      </c>
-      <c r="BB37" s="101">
-        <f>BA37-I36</f>
-        <v>19.633333333333368</v>
-      </c>
-      <c r="BC37" s="101">
-        <f>BB37-I36</f>
-        <v>18.600000000000033</v>
-      </c>
-      <c r="BD37" s="101">
-        <f>BC37-I36</f>
-        <v>17.566666666666698</v>
-      </c>
-      <c r="BE37" s="101">
-        <f>BD37-I36</f>
-        <v>16.533333333333363</v>
-      </c>
-      <c r="BF37" s="101">
-        <f>BE37-I36</f>
-        <v>15.50000000000003</v>
-      </c>
-      <c r="BG37" s="101">
-        <f>BF37-I36</f>
-        <v>14.466666666666697</v>
-      </c>
-      <c r="BH37" s="101">
-        <f>BG37-I36</f>
-        <v>13.433333333333364</v>
-      </c>
-      <c r="BI37" s="101">
-        <f>BH37-I36</f>
-        <v>12.400000000000031</v>
-      </c>
-      <c r="BJ37" s="101">
-        <f>BI37-I36</f>
-        <v>11.366666666666697</v>
-      </c>
-      <c r="BK37" s="101">
-        <f>BJ37-I36</f>
-        <v>10.333333333333364</v>
-      </c>
-      <c r="BL37" s="101">
-        <f>BK37-I36</f>
-        <v>9.3000000000000309</v>
-      </c>
-      <c r="BM37" s="101">
-        <f>BL37-I36</f>
-        <v>8.2666666666666977</v>
-      </c>
-      <c r="BN37" s="101">
-        <f>BM37-I36</f>
-        <v>7.2333333333333645</v>
-      </c>
-      <c r="BO37" s="101">
-        <f>BN37-I36</f>
-        <v>6.2000000000000313</v>
-      </c>
-      <c r="BP37" s="101">
-        <f>BO37-I36</f>
-        <v>5.166666666666698</v>
-      </c>
-      <c r="BQ37" s="101">
-        <f>BP37-I36</f>
-        <v>4.1333333333333648</v>
-      </c>
-      <c r="BR37" s="101">
-        <f>BQ37-I36</f>
-        <v>3.1000000000000316</v>
-      </c>
-      <c r="BS37" s="101">
-        <f>BR37-I36</f>
-        <v>2.0666666666666984</v>
-      </c>
-      <c r="BT37" s="101">
-        <f>BS37-I36</f>
-        <v>1.033333333333365</v>
+        <f>E35</f>
+        <v>58</v>
+      </c>
+      <c r="N37" s="100">
+        <f t="shared" ref="N37:AS37" si="5">M39</f>
+        <v>50</v>
+      </c>
+      <c r="O37" s="100">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="P37" s="100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="100">
+        <f t="shared" si="5"/>
+        <v>-40</v>
+      </c>
+      <c r="R37" s="100">
+        <f t="shared" si="5"/>
+        <v>-60</v>
+      </c>
+      <c r="S37" s="100">
+        <f t="shared" si="5"/>
+        <v>-71</v>
+      </c>
+      <c r="T37" s="100">
+        <f t="shared" si="5"/>
+        <v>-87</v>
+      </c>
+      <c r="U37" s="100">
+        <f t="shared" si="5"/>
+        <v>-129</v>
+      </c>
+      <c r="V37" s="100">
+        <f t="shared" si="5"/>
+        <v>-174</v>
+      </c>
+      <c r="W37" s="100">
+        <f t="shared" si="5"/>
+        <v>-194</v>
+      </c>
+      <c r="X37" s="100">
+        <f t="shared" si="5"/>
+        <v>-204</v>
+      </c>
+      <c r="Y37" s="100">
+        <f t="shared" si="5"/>
+        <v>-220</v>
+      </c>
+      <c r="Z37" s="100">
+        <f t="shared" si="5"/>
+        <v>-244</v>
+      </c>
+      <c r="AA37" s="100">
+        <f t="shared" si="5"/>
+        <v>-292</v>
+      </c>
+      <c r="AB37" s="100">
+        <f t="shared" si="5"/>
+        <v>-312</v>
+      </c>
+      <c r="AC37" s="100">
+        <f t="shared" si="5"/>
+        <v>-316</v>
+      </c>
+      <c r="AD37" s="100">
+        <f t="shared" si="5"/>
+        <v>-321</v>
+      </c>
+      <c r="AE37" s="100">
+        <f t="shared" si="5"/>
+        <v>-325</v>
+      </c>
+      <c r="AF37" s="100">
+        <f t="shared" si="5"/>
+        <v>-333</v>
+      </c>
+      <c r="AG37" s="100">
+        <f t="shared" si="5"/>
+        <v>-341</v>
+      </c>
+      <c r="AH37" s="100">
+        <f t="shared" si="5"/>
+        <v>-346</v>
+      </c>
+      <c r="AI37" s="100">
+        <f t="shared" si="5"/>
+        <v>-351</v>
+      </c>
+      <c r="AJ37" s="100">
+        <f t="shared" si="5"/>
+        <v>-356</v>
+      </c>
+      <c r="AK37" s="100">
+        <f t="shared" si="5"/>
+        <v>-359</v>
+      </c>
+      <c r="AL37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AM37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AN37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AO37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AP37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AQ37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AR37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AS37" s="100">
+        <f t="shared" si="5"/>
+        <v>-361</v>
+      </c>
+      <c r="AT37" s="100">
+        <f t="shared" ref="AT37:BT37" si="6">AS39</f>
+        <v>-361</v>
+      </c>
+      <c r="AU37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="AV37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="AW37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="AX37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="AY37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="AZ37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BA37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BB37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BC37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BD37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BE37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BF37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BG37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BH37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BI37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BJ37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BK37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BL37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BM37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BN37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BO37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BP37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BQ37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BR37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BS37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
+      </c>
+      <c r="BT37" s="100">
+        <f t="shared" si="6"/>
+        <v>-361</v>
       </c>
       <c r="BU37" s="38"/>
-      <c r="BV37" s="141" t="s">
-        <v>49</v>
+      <c r="BV37" s="142">
+        <f>SUM(M37:BT37)</f>
+        <v>-17572</v>
       </c>
     </row>
     <row r="38" spans="2:74" ht="23.1" customHeight="1">
@@ -15196,254 +15344,126 @@
       <c r="H38" s="38"/>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
+      <c r="K38" s="102" t="s">
+        <v>50</v>
+      </c>
       <c r="L38" s="185" t="s">
-        <v>28</v>
-      </c>
-      <c r="M38" s="100">
-        <f>E36</f>
-        <v>62</v>
-      </c>
-      <c r="N38" s="100">
-        <f t="shared" ref="N38:AS38" si="5">M40</f>
-        <v>54</v>
-      </c>
-      <c r="O38" s="100">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="P38" s="100">
-        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="M38" s="76">
+        <v>8</v>
+      </c>
+      <c r="N38" s="76">
+        <v>20</v>
+      </c>
+      <c r="O38" s="76">
+        <v>30</v>
+      </c>
+      <c r="P38" s="76">
+        <v>40</v>
+      </c>
+      <c r="Q38" s="76">
+        <v>20</v>
+      </c>
+      <c r="R38" s="76">
+        <v>11</v>
+      </c>
+      <c r="S38" s="76">
+        <v>16</v>
+      </c>
+      <c r="T38" s="76">
+        <v>42</v>
+      </c>
+      <c r="U38" s="76">
+        <v>45</v>
+      </c>
+      <c r="V38" s="76">
+        <v>20</v>
+      </c>
+      <c r="W38" s="76">
+        <v>10</v>
+      </c>
+      <c r="X38" s="76">
+        <v>16</v>
+      </c>
+      <c r="Y38" s="76">
+        <v>24</v>
+      </c>
+      <c r="Z38" s="76">
+        <v>48</v>
+      </c>
+      <c r="AA38" s="76">
+        <v>20</v>
+      </c>
+      <c r="AB38" s="76">
         <v>4</v>
       </c>
-      <c r="Q38" s="100">
-        <f t="shared" si="5"/>
-        <v>-36</v>
-      </c>
-      <c r="R38" s="100">
-        <f t="shared" si="5"/>
-        <v>-56</v>
-      </c>
-      <c r="S38" s="100">
-        <f t="shared" si="5"/>
-        <v>-67</v>
-      </c>
-      <c r="T38" s="100">
-        <f t="shared" si="5"/>
-        <v>-83</v>
-      </c>
-      <c r="U38" s="100">
-        <f t="shared" si="5"/>
-        <v>-125</v>
-      </c>
-      <c r="V38" s="100">
-        <f t="shared" si="5"/>
-        <v>-170</v>
-      </c>
-      <c r="W38" s="100">
-        <f t="shared" si="5"/>
-        <v>-190</v>
-      </c>
-      <c r="X38" s="100">
-        <f t="shared" si="5"/>
-        <v>-200</v>
-      </c>
-      <c r="Y38" s="100">
-        <f t="shared" si="5"/>
-        <v>-216</v>
-      </c>
-      <c r="Z38" s="100">
-        <f t="shared" si="5"/>
-        <v>-240</v>
-      </c>
-      <c r="AA38" s="100">
-        <f t="shared" si="5"/>
-        <v>-288</v>
-      </c>
-      <c r="AB38" s="100">
-        <f t="shared" si="5"/>
-        <v>-308</v>
-      </c>
-      <c r="AC38" s="100">
-        <f t="shared" si="5"/>
-        <v>-312</v>
-      </c>
-      <c r="AD38" s="100">
-        <f t="shared" si="5"/>
-        <v>-317</v>
-      </c>
-      <c r="AE38" s="100">
-        <f t="shared" si="5"/>
-        <v>-321</v>
-      </c>
-      <c r="AF38" s="100">
-        <f t="shared" si="5"/>
-        <v>-329</v>
-      </c>
-      <c r="AG38" s="100">
-        <f t="shared" si="5"/>
-        <v>-337</v>
-      </c>
-      <c r="AH38" s="100">
-        <f t="shared" si="5"/>
-        <v>-342</v>
-      </c>
-      <c r="AI38" s="100">
-        <f t="shared" si="5"/>
-        <v>-347</v>
-      </c>
-      <c r="AJ38" s="100">
-        <f t="shared" si="5"/>
-        <v>-352</v>
-      </c>
-      <c r="AK38" s="100">
-        <f t="shared" si="5"/>
-        <v>-355</v>
-      </c>
-      <c r="AL38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AM38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AN38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AO38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AP38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AQ38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AR38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AS38" s="100">
-        <f t="shared" si="5"/>
-        <v>-357</v>
-      </c>
-      <c r="AT38" s="100">
-        <f t="shared" ref="AT38:BT38" si="6">AS40</f>
-        <v>-357</v>
-      </c>
-      <c r="AU38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="AV38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="AW38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="AX38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="AY38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="AZ38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BA38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BB38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BC38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BD38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BE38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BF38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BG38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BH38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BI38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BJ38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BK38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BL38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BM38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BN38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BO38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BP38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BQ38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BR38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BS38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
-      <c r="BT38" s="100">
-        <f t="shared" si="6"/>
-        <v>-357</v>
-      </c>
+      <c r="AC38" s="76">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="76">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="76">
+        <v>8</v>
+      </c>
+      <c r="AF38" s="76">
+        <v>8</v>
+      </c>
+      <c r="AG38" s="76">
+        <v>5</v>
+      </c>
+      <c r="AH38" s="76">
+        <v>5</v>
+      </c>
+      <c r="AI38" s="76">
+        <v>5</v>
+      </c>
+      <c r="AJ38" s="76">
+        <v>3</v>
+      </c>
+      <c r="AK38" s="76">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
+      <c r="AZ38" s="76"/>
+      <c r="BA38" s="76"/>
+      <c r="BB38" s="76"/>
+      <c r="BC38" s="76"/>
+      <c r="BD38" s="76"/>
+      <c r="BE38" s="76"/>
+      <c r="BF38" s="76"/>
+      <c r="BG38" s="76"/>
+      <c r="BH38" s="76"/>
+      <c r="BI38" s="76"/>
+      <c r="BJ38" s="76"/>
+      <c r="BK38" s="76"/>
+      <c r="BL38" s="76"/>
+      <c r="BM38" s="76"/>
+      <c r="BN38" s="76"/>
+      <c r="BO38" s="76"/>
+      <c r="BP38" s="76"/>
+      <c r="BQ38" s="76"/>
+      <c r="BR38" s="76"/>
+      <c r="BS38" s="76"/>
+      <c r="BT38" s="76"/>
       <c r="BU38" s="38"/>
-      <c r="BV38" s="142">
+      <c r="BV38" s="143">
         <f>SUM(M38:BT38)</f>
-        <v>-17332</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="2:74" ht="23.1" customHeight="1">
@@ -15456,478 +15476,353 @@
       <c r="H39" s="38"/>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
-      <c r="K39" s="102" t="s">
+      <c r="K39" s="38"/>
+      <c r="L39" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="100">
+        <f t="shared" ref="M39:AR39" si="7">M37-M38</f>
         <v>50</v>
       </c>
-      <c r="L39" s="185" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="76">
-        <v>8</v>
-      </c>
-      <c r="N39" s="76">
-        <v>20</v>
-      </c>
-      <c r="O39" s="76">
+      <c r="N39" s="100">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="P39" s="76">
-        <v>40</v>
-      </c>
-      <c r="Q39" s="76">
-        <v>20</v>
-      </c>
-      <c r="R39" s="76">
-        <v>11</v>
-      </c>
-      <c r="S39" s="76">
-        <v>16</v>
-      </c>
-      <c r="T39" s="76">
-        <v>42</v>
-      </c>
-      <c r="U39" s="76">
-        <v>45</v>
-      </c>
-      <c r="V39" s="76">
-        <v>20</v>
-      </c>
-      <c r="W39" s="76">
-        <v>10</v>
-      </c>
-      <c r="X39" s="76">
-        <v>16</v>
-      </c>
-      <c r="Y39" s="76">
-        <v>24</v>
-      </c>
-      <c r="Z39" s="76">
-        <v>48</v>
-      </c>
-      <c r="AA39" s="76">
-        <v>20</v>
-      </c>
-      <c r="AB39" s="76">
-        <v>4</v>
-      </c>
-      <c r="AC39" s="76">
-        <v>5</v>
-      </c>
-      <c r="AD39" s="76">
-        <v>4</v>
-      </c>
-      <c r="AE39" s="76">
-        <v>8</v>
-      </c>
-      <c r="AF39" s="76">
-        <v>8</v>
-      </c>
-      <c r="AG39" s="76">
-        <v>5</v>
-      </c>
-      <c r="AH39" s="76">
-        <v>5</v>
-      </c>
-      <c r="AI39" s="76">
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="76">
-        <v>3</v>
-      </c>
-      <c r="AK39" s="76">
-        <v>2</v>
-      </c>
-      <c r="AL39" s="76"/>
-      <c r="AM39" s="76"/>
-      <c r="AN39" s="76"/>
-      <c r="AO39" s="76"/>
-      <c r="AP39" s="76"/>
-      <c r="AQ39" s="76"/>
-      <c r="AR39" s="76"/>
-      <c r="AS39" s="76"/>
-      <c r="AT39" s="76"/>
-      <c r="AU39" s="76"/>
-      <c r="AV39" s="76"/>
-      <c r="AW39" s="76"/>
-      <c r="AX39" s="76"/>
-      <c r="AY39" s="76"/>
-      <c r="AZ39" s="76"/>
-      <c r="BA39" s="76"/>
-      <c r="BB39" s="76"/>
-      <c r="BC39" s="76"/>
-      <c r="BD39" s="76"/>
-      <c r="BE39" s="76"/>
-      <c r="BF39" s="76"/>
-      <c r="BG39" s="76"/>
-      <c r="BH39" s="76"/>
-      <c r="BI39" s="76"/>
-      <c r="BJ39" s="76"/>
-      <c r="BK39" s="76"/>
-      <c r="BL39" s="76"/>
-      <c r="BM39" s="76"/>
-      <c r="BN39" s="76"/>
-      <c r="BO39" s="76"/>
-      <c r="BP39" s="76"/>
-      <c r="BQ39" s="76"/>
-      <c r="BR39" s="76"/>
-      <c r="BS39" s="76"/>
-      <c r="BT39" s="76"/>
+      <c r="O39" s="100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="100">
+        <f t="shared" si="7"/>
+        <v>-40</v>
+      </c>
+      <c r="Q39" s="100">
+        <f t="shared" si="7"/>
+        <v>-60</v>
+      </c>
+      <c r="R39" s="100">
+        <f t="shared" si="7"/>
+        <v>-71</v>
+      </c>
+      <c r="S39" s="100">
+        <f t="shared" si="7"/>
+        <v>-87</v>
+      </c>
+      <c r="T39" s="100">
+        <f t="shared" si="7"/>
+        <v>-129</v>
+      </c>
+      <c r="U39" s="100">
+        <f t="shared" si="7"/>
+        <v>-174</v>
+      </c>
+      <c r="V39" s="100">
+        <f t="shared" si="7"/>
+        <v>-194</v>
+      </c>
+      <c r="W39" s="100">
+        <f t="shared" si="7"/>
+        <v>-204</v>
+      </c>
+      <c r="X39" s="100">
+        <f t="shared" si="7"/>
+        <v>-220</v>
+      </c>
+      <c r="Y39" s="100">
+        <f t="shared" si="7"/>
+        <v>-244</v>
+      </c>
+      <c r="Z39" s="100">
+        <f t="shared" si="7"/>
+        <v>-292</v>
+      </c>
+      <c r="AA39" s="100">
+        <f t="shared" si="7"/>
+        <v>-312</v>
+      </c>
+      <c r="AB39" s="100">
+        <f t="shared" si="7"/>
+        <v>-316</v>
+      </c>
+      <c r="AC39" s="100">
+        <f t="shared" si="7"/>
+        <v>-321</v>
+      </c>
+      <c r="AD39" s="100">
+        <f t="shared" si="7"/>
+        <v>-325</v>
+      </c>
+      <c r="AE39" s="100">
+        <f t="shared" si="7"/>
+        <v>-333</v>
+      </c>
+      <c r="AF39" s="100">
+        <f t="shared" si="7"/>
+        <v>-341</v>
+      </c>
+      <c r="AG39" s="100">
+        <f t="shared" si="7"/>
+        <v>-346</v>
+      </c>
+      <c r="AH39" s="100">
+        <f t="shared" si="7"/>
+        <v>-351</v>
+      </c>
+      <c r="AI39" s="100">
+        <f t="shared" si="7"/>
+        <v>-356</v>
+      </c>
+      <c r="AJ39" s="100">
+        <f t="shared" si="7"/>
+        <v>-359</v>
+      </c>
+      <c r="AK39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AL39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AM39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AN39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AO39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AP39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AQ39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AR39" s="100">
+        <f t="shared" si="7"/>
+        <v>-361</v>
+      </c>
+      <c r="AS39" s="100">
+        <f t="shared" ref="AS39:BT39" si="8">AS37-AS38</f>
+        <v>-361</v>
+      </c>
+      <c r="AT39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AU39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AV39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AW39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AX39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AY39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="AZ39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BA39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BB39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BC39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BD39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BE39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BF39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BG39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BH39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BI39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BJ39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BK39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BL39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BM39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BN39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BO39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BP39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BQ39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BR39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BS39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
+      <c r="BT39" s="100">
+        <f t="shared" si="8"/>
+        <v>-361</v>
+      </c>
       <c r="BU39" s="38"/>
       <c r="BV39" s="143">
         <f>SUM(M39:BT39)</f>
-        <v>419</v>
+        <v>-17991</v>
       </c>
     </row>
-    <row r="40" spans="2:74" ht="23.1" customHeight="1">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="185" t="s">
-        <v>52</v>
-      </c>
-      <c r="M40" s="100">
-        <f t="shared" ref="M40:AR40" si="7">M38-M39</f>
-        <v>54</v>
-      </c>
-      <c r="N40" s="100">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="O40" s="100">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="P40" s="100">
-        <f t="shared" si="7"/>
-        <v>-36</v>
-      </c>
-      <c r="Q40" s="100">
-        <f t="shared" si="7"/>
-        <v>-56</v>
-      </c>
-      <c r="R40" s="100">
-        <f t="shared" si="7"/>
-        <v>-67</v>
-      </c>
-      <c r="S40" s="100">
-        <f t="shared" si="7"/>
-        <v>-83</v>
-      </c>
-      <c r="T40" s="100">
-        <f t="shared" si="7"/>
-        <v>-125</v>
-      </c>
-      <c r="U40" s="100">
-        <f t="shared" si="7"/>
-        <v>-170</v>
-      </c>
-      <c r="V40" s="100">
-        <f t="shared" si="7"/>
-        <v>-190</v>
-      </c>
-      <c r="W40" s="100">
-        <f t="shared" si="7"/>
-        <v>-200</v>
-      </c>
-      <c r="X40" s="100">
-        <f t="shared" si="7"/>
-        <v>-216</v>
-      </c>
-      <c r="Y40" s="100">
-        <f t="shared" si="7"/>
-        <v>-240</v>
-      </c>
-      <c r="Z40" s="100">
-        <f t="shared" si="7"/>
-        <v>-288</v>
-      </c>
-      <c r="AA40" s="100">
-        <f t="shared" si="7"/>
-        <v>-308</v>
-      </c>
-      <c r="AB40" s="100">
-        <f t="shared" si="7"/>
-        <v>-312</v>
-      </c>
-      <c r="AC40" s="100">
-        <f t="shared" si="7"/>
-        <v>-317</v>
-      </c>
-      <c r="AD40" s="100">
-        <f t="shared" si="7"/>
-        <v>-321</v>
-      </c>
-      <c r="AE40" s="100">
-        <f t="shared" si="7"/>
-        <v>-329</v>
-      </c>
-      <c r="AF40" s="100">
-        <f t="shared" si="7"/>
-        <v>-337</v>
-      </c>
-      <c r="AG40" s="100">
-        <f t="shared" si="7"/>
-        <v>-342</v>
-      </c>
-      <c r="AH40" s="100">
-        <f t="shared" si="7"/>
-        <v>-347</v>
-      </c>
-      <c r="AI40" s="100">
-        <f t="shared" si="7"/>
-        <v>-352</v>
-      </c>
-      <c r="AJ40" s="100">
-        <f t="shared" si="7"/>
-        <v>-355</v>
-      </c>
-      <c r="AK40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AL40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AM40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AN40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AO40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AP40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AQ40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AR40" s="100">
-        <f t="shared" si="7"/>
-        <v>-357</v>
-      </c>
-      <c r="AS40" s="100">
-        <f t="shared" ref="AS40:BT40" si="8">AS38-AS39</f>
-        <v>-357</v>
-      </c>
-      <c r="AT40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AU40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AV40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AW40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AX40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AY40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="AZ40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BA40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BB40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BC40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BD40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BE40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BF40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BG40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BH40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BI40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BJ40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BK40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BL40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BM40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BN40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BO40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BP40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BQ40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BR40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BS40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BT40" s="100">
-        <f t="shared" si="8"/>
-        <v>-357</v>
-      </c>
-      <c r="BU40" s="38"/>
-      <c r="BV40" s="143">
-        <f>SUM(M40:BT40)</f>
-        <v>-17751</v>
+    <row r="40" spans="2:74" ht="20.25" customHeight="1">
+      <c r="C40" s="36" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:74" ht="20.25" customHeight="1">
-      <c r="C41" s="36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="2:74" ht="381.9" customHeight="1"/>
-    <row r="43" spans="2:74" ht="216.9" customHeight="1"/>
-    <row r="45" spans="2:74" ht="50.1" customHeight="1">
-      <c r="B45" s="240" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="241"/>
-      <c r="D45" s="241"/>
-      <c r="E45" s="241"/>
-      <c r="F45" s="241"/>
-      <c r="G45" s="241"/>
-      <c r="H45" s="241"/>
-      <c r="I45" s="241"/>
-      <c r="J45" s="241"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="241"/>
-      <c r="M45" s="241"/>
-      <c r="N45" s="241"/>
-      <c r="O45" s="241"/>
-      <c r="P45" s="241"/>
-      <c r="Q45" s="241"/>
-      <c r="R45" s="241"/>
-      <c r="S45" s="241"/>
-      <c r="T45" s="241"/>
-      <c r="U45" s="241"/>
-      <c r="V45" s="241"/>
-      <c r="W45" s="241"/>
-      <c r="X45" s="241"/>
-      <c r="Y45" s="241"/>
-      <c r="Z45" s="241"/>
-      <c r="AA45" s="241"/>
-      <c r="AB45" s="241"/>
-      <c r="AC45" s="241"/>
-      <c r="AD45" s="241"/>
-      <c r="AE45" s="241"/>
-      <c r="AF45" s="241"/>
-      <c r="AG45" s="241"/>
-      <c r="AH45" s="241"/>
-      <c r="AI45" s="241"/>
-      <c r="AJ45" s="241"/>
-      <c r="AK45" s="241"/>
-      <c r="AL45" s="241"/>
-      <c r="AM45" s="241"/>
-      <c r="AN45" s="241"/>
-      <c r="AO45" s="241"/>
-      <c r="AP45" s="241"/>
-      <c r="AQ45" s="241"/>
-      <c r="AR45" s="241"/>
-      <c r="AS45" s="241"/>
-      <c r="AT45" s="241"/>
-      <c r="AU45" s="241"/>
-      <c r="AV45" s="241"/>
-      <c r="AW45" s="241"/>
-      <c r="AX45" s="241"/>
-      <c r="AY45" s="241"/>
-      <c r="AZ45" s="241"/>
-      <c r="BA45" s="241"/>
-      <c r="BB45" s="241"/>
-      <c r="BC45" s="241"/>
-      <c r="BD45" s="241"/>
-      <c r="BE45" s="241"/>
-      <c r="BF45" s="241"/>
-      <c r="BG45" s="241"/>
-      <c r="BH45" s="241"/>
-      <c r="BI45" s="241"/>
-      <c r="BJ45" s="241"/>
-      <c r="BK45" s="241"/>
-      <c r="BL45" s="241"/>
-      <c r="BM45" s="241"/>
-      <c r="BN45" s="241"/>
-      <c r="BO45" s="241"/>
-      <c r="BP45" s="241"/>
-      <c r="BQ45" s="241"/>
-      <c r="BR45" s="241"/>
-      <c r="BS45" s="241"/>
-      <c r="BT45" s="241"/>
-      <c r="BU45" s="241"/>
-      <c r="BV45" s="242"/>
+    <row r="41" spans="2:74" ht="381.9" customHeight="1"/>
+    <row r="42" spans="2:74" ht="216.9" customHeight="1"/>
+    <row r="44" spans="2:74" ht="50.1" customHeight="1">
+      <c r="B44" s="240" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="241"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="241"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="241"/>
+      <c r="O44" s="241"/>
+      <c r="P44" s="241"/>
+      <c r="Q44" s="241"/>
+      <c r="R44" s="241"/>
+      <c r="S44" s="241"/>
+      <c r="T44" s="241"/>
+      <c r="U44" s="241"/>
+      <c r="V44" s="241"/>
+      <c r="W44" s="241"/>
+      <c r="X44" s="241"/>
+      <c r="Y44" s="241"/>
+      <c r="Z44" s="241"/>
+      <c r="AA44" s="241"/>
+      <c r="AB44" s="241"/>
+      <c r="AC44" s="241"/>
+      <c r="AD44" s="241"/>
+      <c r="AE44" s="241"/>
+      <c r="AF44" s="241"/>
+      <c r="AG44" s="241"/>
+      <c r="AH44" s="241"/>
+      <c r="AI44" s="241"/>
+      <c r="AJ44" s="241"/>
+      <c r="AK44" s="241"/>
+      <c r="AL44" s="241"/>
+      <c r="AM44" s="241"/>
+      <c r="AN44" s="241"/>
+      <c r="AO44" s="241"/>
+      <c r="AP44" s="241"/>
+      <c r="AQ44" s="241"/>
+      <c r="AR44" s="241"/>
+      <c r="AS44" s="241"/>
+      <c r="AT44" s="241"/>
+      <c r="AU44" s="241"/>
+      <c r="AV44" s="241"/>
+      <c r="AW44" s="241"/>
+      <c r="AX44" s="241"/>
+      <c r="AY44" s="241"/>
+      <c r="AZ44" s="241"/>
+      <c r="BA44" s="241"/>
+      <c r="BB44" s="241"/>
+      <c r="BC44" s="241"/>
+      <c r="BD44" s="241"/>
+      <c r="BE44" s="241"/>
+      <c r="BF44" s="241"/>
+      <c r="BG44" s="241"/>
+      <c r="BH44" s="241"/>
+      <c r="BI44" s="241"/>
+      <c r="BJ44" s="241"/>
+      <c r="BK44" s="241"/>
+      <c r="BL44" s="241"/>
+      <c r="BM44" s="241"/>
+      <c r="BN44" s="241"/>
+      <c r="BO44" s="241"/>
+      <c r="BP44" s="241"/>
+      <c r="BQ44" s="241"/>
+      <c r="BR44" s="241"/>
+      <c r="BS44" s="241"/>
+      <c r="BT44" s="241"/>
+      <c r="BU44" s="241"/>
+      <c r="BV44" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
     <mergeCell ref="BK8:BO8"/>
     <mergeCell ref="AV8:AZ8"/>
     <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="B45:BV45"/>
+    <mergeCell ref="B44:BV44"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="BP8:BT8"/>
     <mergeCell ref="B8:B9"/>
@@ -15940,16 +15835,9 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
   </mergeCells>
-  <conditionalFormatting sqref="L10:L34">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="L10:L33">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -15958,15 +15846,21 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B45" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B44" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup scale="32" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="28" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010053412DB23439304FA68EF728D4AF1C5C" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cfb2229e75f04ed62a7e927b948e564">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6d7b96cf-256e-4836-98ca-5eae763551f2" xmlns:ns3="a8d32fc1-1732-4ff5-877a-0c881fdcc30e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7200203da5681280d40315a9a3f27226" ns2:_="" ns3:_="">
     <xsd:import namespace="6d7b96cf-256e-4836-98ca-5eae763551f2"/>
@@ -16143,12 +16037,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -16159,6 +16047,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64BD60F-6D07-4EF3-9CE3-02B57E857667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE6656EF-8ACC-4CE0-AD09-CF495CE5722B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16177,15 +16074,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E64BD60F-6D07-4EF3-9CE3-02B57E857667}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C121701-A011-43AF-B33E-651273248B67}">
   <ds:schemaRefs>
